--- a/Repository/person/李雨蒙/userstory.xlsx
+++ b/Repository/person/李雨蒙/userstory.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44FCE61A-FC06-4277-ADA8-6A9479630D16}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70EA4544-FE8C-4FC2-A675-A17D5E0617A6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00D7D726-20D6-4461-8237-53B75E01DD10}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00D7D726-20D6-4461-8237-53B75E01DD10}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029" concurrentCalc="0"/>
   <extLst>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="79">
   <si>
     <t>引用编号</t>
   </si>
@@ -236,6 +238,98 @@
   </si>
   <si>
     <t>user story  与当地政府联合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PROJECT VISION</t>
+  </si>
+  <si>
+    <t>PROJECT</t>
+  </si>
+  <si>
+    <t>Name :</t>
+  </si>
+  <si>
+    <t>Vision:</t>
+  </si>
+  <si>
+    <t>亲逢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打造石家庄最大寻人平台，借以帮助失散家庭团聚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>analysis of profit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>亲逢是公益，非营利性应用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第三方网站的推荐介入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>User Model</t>
+  </si>
+  <si>
+    <t>类别</t>
+  </si>
+  <si>
+    <t>User DESCRIPTION</t>
+  </si>
+  <si>
+    <t>STATUS</t>
+  </si>
+  <si>
+    <t>SEVERITY</t>
+  </si>
+  <si>
+    <t>NOTES</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>普通用户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>志愿者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可能只是浏览亲逢应用，通过发布的寻人信息，对周围失踪人口进行留意。</t>
+  </si>
+  <si>
+    <t>紧急用户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>家里可能有人丢失，或者自己想要找寻家庭，在寻亲登记中进行了登记，希望自己的等级可以及时得到反馈。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对于发布的寻亲登记进行持续跟踪，发现线索，实现寻人。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运营商</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运营亲逢应用的人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理亲逢应用的人</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -250,7 +344,7 @@
     <numFmt numFmtId="179" formatCode="0.00;\-0.00;;@\ "/>
     <numFmt numFmtId="180" formatCode="0;\-0;;@\ "/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -325,8 +419,63 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <i/>
+      <sz val="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="5" tint="-0.249977111117893"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="63"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="63"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="26"/>
+      <color indexed="63"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -375,8 +524,31 @@
         <bgColor theme="4" tint="0.79998168889431442"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="44"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="27"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor theme="5" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="21">
+  <borders count="32">
     <border>
       <left/>
       <right/>
@@ -642,6 +814,143 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="9"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="9"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="9"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="9"/>
+      </left>
+      <right style="thin">
+        <color indexed="9"/>
+      </right>
+      <top style="thin">
+        <color indexed="9"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="9"/>
+      </left>
+      <right style="thin">
+        <color indexed="9"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="9"/>
+      </right>
+      <top style="thin">
+        <color indexed="9"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="9"/>
+      </left>
+      <right style="thin">
+        <color indexed="9"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -665,7 +974,7 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="110">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -693,6 +1002,115 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="8" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="8" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="8" fillId="3" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="10" borderId="27" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="31" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="10" borderId="30" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="29" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="28" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="10" borderId="21" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="21" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -734,49 +1152,95 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="8" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="8" fillId="3" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="10">
@@ -1100,11 +1564,576 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{549EAC8F-CFD0-4535-9FED-47D4490187D0}">
+  <dimension ref="A2:J14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6:E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="2" spans="1:10" ht="33" x14ac:dyDescent="0.25">
+      <c r="A2" s="52"/>
+      <c r="B2" s="48" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="48"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="50"/>
+      <c r="B3" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" s="51" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" s="49" t="s">
+        <v>57</v>
+      </c>
+      <c r="E3" s="45"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="50"/>
+      <c r="J3" s="50"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="50"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="51" t="s">
+        <v>56</v>
+      </c>
+      <c r="D4" s="49" t="s">
+        <v>58</v>
+      </c>
+      <c r="E4" s="45"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="50"/>
+      <c r="H4" s="50"/>
+      <c r="I4" s="50"/>
+      <c r="J4" s="50"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="50"/>
+      <c r="B6" s="47" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" s="49" t="s">
+        <v>60</v>
+      </c>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="50"/>
+      <c r="G6" s="50"/>
+      <c r="H6" s="50"/>
+      <c r="I6" s="50"/>
+      <c r="J6" s="50"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="50"/>
+      <c r="B7" s="46"/>
+      <c r="C7" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="D7" s="41"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="50"/>
+      <c r="H7" s="50"/>
+      <c r="I7" s="50"/>
+      <c r="J7" s="50"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="50"/>
+      <c r="B8" s="44"/>
+      <c r="C8" s="49"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="50"/>
+      <c r="G8" s="50"/>
+      <c r="H8" s="50"/>
+      <c r="I8" s="50"/>
+      <c r="J8" s="50"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C9" s="42"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C10" s="42"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C12" s="42"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C13" s="42"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C14" s="42"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="B2:J2"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C6:E6"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D8C549F-BFF1-460A-AA7B-1EA3BD6C3DA0}">
+  <dimension ref="A1:HU55"/>
+  <sheetViews>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="31.4140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="93"/>
+      <c r="B1" s="94"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+    </row>
+    <row r="2" spans="1:5" ht="33" x14ac:dyDescent="0.25">
+      <c r="A2" s="48" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="81"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="93"/>
+      <c r="B3" s="94"/>
+      <c r="C3" s="85"/>
+      <c r="D3" s="85"/>
+      <c r="E3" s="85"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="95"/>
+      <c r="B4" s="96"/>
+      <c r="C4" s="90"/>
+      <c r="D4" s="91"/>
+      <c r="E4" s="89"/>
+    </row>
+    <row r="5" spans="1:5" ht="39" x14ac:dyDescent="0.25">
+      <c r="A5" s="100" t="s">
+        <v>63</v>
+      </c>
+      <c r="B5" s="101" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5" s="102" t="s">
+        <v>65</v>
+      </c>
+      <c r="D5" s="103" t="s">
+        <v>66</v>
+      </c>
+      <c r="E5" s="104" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="63.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="105" t="s">
+        <v>69</v>
+      </c>
+      <c r="B6" s="106" t="s">
+        <v>71</v>
+      </c>
+      <c r="C6" s="107"/>
+      <c r="D6" s="108"/>
+      <c r="E6" s="109"/>
+    </row>
+    <row r="7" spans="1:5" ht="53" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="97" t="s">
+        <v>72</v>
+      </c>
+      <c r="B7" s="92" t="s">
+        <v>73</v>
+      </c>
+      <c r="C7" s="86"/>
+      <c r="D7" s="87"/>
+      <c r="E7" s="88"/>
+    </row>
+    <row r="8" spans="1:5" ht="62.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="105" t="s">
+        <v>70</v>
+      </c>
+      <c r="B8" s="106" t="s">
+        <v>74</v>
+      </c>
+      <c r="C8" s="107"/>
+      <c r="D8" s="108"/>
+      <c r="E8" s="109"/>
+    </row>
+    <row r="9" spans="1:5" ht="23.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="97" t="s">
+        <v>75</v>
+      </c>
+      <c r="B9" s="92" t="s">
+        <v>77</v>
+      </c>
+      <c r="C9" s="86"/>
+      <c r="D9" s="87"/>
+      <c r="E9" s="88"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="105" t="s">
+        <v>76</v>
+      </c>
+      <c r="B10" s="106" t="s">
+        <v>78</v>
+      </c>
+      <c r="C10" s="105"/>
+      <c r="D10" s="106"/>
+      <c r="E10" s="105"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="97"/>
+      <c r="B11" s="92"/>
+      <c r="C11" s="86"/>
+      <c r="D11" s="87"/>
+      <c r="E11" s="88"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="105"/>
+      <c r="B12" s="106"/>
+      <c r="C12" s="105"/>
+      <c r="D12" s="106"/>
+      <c r="E12" s="105"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="97"/>
+      <c r="B13" s="92"/>
+      <c r="C13" s="86"/>
+      <c r="D13" s="87"/>
+      <c r="E13" s="88"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="105"/>
+      <c r="B14" s="106"/>
+      <c r="C14" s="105"/>
+      <c r="D14" s="106"/>
+      <c r="E14" s="105"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="97"/>
+      <c r="B15" s="92"/>
+      <c r="C15" s="86"/>
+      <c r="D15" s="87"/>
+      <c r="E15" s="88"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="105"/>
+      <c r="B16" s="106"/>
+      <c r="C16" s="105"/>
+      <c r="D16" s="106"/>
+      <c r="E16" s="105"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="97"/>
+      <c r="B17" s="92"/>
+      <c r="C17" s="86"/>
+      <c r="D17" s="87"/>
+      <c r="E17" s="88"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="105"/>
+      <c r="B18" s="106"/>
+      <c r="C18" s="105"/>
+      <c r="D18" s="106"/>
+      <c r="E18" s="105"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="97"/>
+      <c r="B19" s="92"/>
+      <c r="C19" s="86"/>
+      <c r="D19" s="87"/>
+      <c r="E19" s="88"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="100"/>
+      <c r="B20" s="101"/>
+      <c r="C20" s="100" t="s">
+        <v>68</v>
+      </c>
+      <c r="D20" s="101"/>
+      <c r="E20" s="100"/>
+    </row>
+    <row r="48" spans="1:229" x14ac:dyDescent="0.25">
+      <c r="A48" s="98"/>
+      <c r="B48" s="99"/>
+      <c r="C48" s="82"/>
+      <c r="D48" s="82"/>
+      <c r="E48" s="82"/>
+      <c r="F48" s="84"/>
+      <c r="G48" s="84"/>
+      <c r="H48" s="84"/>
+      <c r="I48" s="84"/>
+      <c r="J48" s="84"/>
+      <c r="K48" s="84"/>
+      <c r="L48" s="84"/>
+      <c r="M48" s="84"/>
+      <c r="N48" s="84"/>
+      <c r="O48" s="84"/>
+      <c r="P48" s="84"/>
+      <c r="Q48" s="84"/>
+      <c r="R48" s="84"/>
+      <c r="S48" s="84"/>
+      <c r="T48" s="84"/>
+      <c r="U48" s="84"/>
+      <c r="V48" s="84"/>
+      <c r="W48" s="84"/>
+      <c r="X48" s="84"/>
+      <c r="Y48" s="84"/>
+      <c r="Z48" s="84"/>
+      <c r="AA48" s="84"/>
+      <c r="AB48" s="84"/>
+      <c r="AC48" s="84"/>
+      <c r="AD48" s="84"/>
+      <c r="AE48" s="84"/>
+      <c r="AF48" s="84"/>
+      <c r="AG48" s="84"/>
+      <c r="AH48" s="84"/>
+      <c r="AI48" s="84"/>
+      <c r="AJ48" s="84"/>
+      <c r="AK48" s="84"/>
+      <c r="AL48" s="84"/>
+      <c r="AM48" s="84"/>
+      <c r="AN48" s="84"/>
+      <c r="AO48" s="84"/>
+      <c r="AP48" s="84"/>
+      <c r="AQ48" s="84"/>
+      <c r="AR48" s="84"/>
+      <c r="AS48" s="84"/>
+      <c r="AT48" s="84"/>
+      <c r="AU48" s="84"/>
+      <c r="AV48" s="84"/>
+      <c r="AW48" s="84"/>
+      <c r="AX48" s="84"/>
+      <c r="AY48" s="84"/>
+      <c r="AZ48" s="84"/>
+      <c r="BA48" s="84"/>
+      <c r="BB48" s="84"/>
+      <c r="BC48" s="84"/>
+      <c r="BD48" s="84"/>
+      <c r="BE48" s="84"/>
+      <c r="BF48" s="84"/>
+      <c r="BG48" s="84"/>
+      <c r="BH48" s="84"/>
+      <c r="BI48" s="84"/>
+      <c r="BJ48" s="84"/>
+      <c r="BK48" s="84"/>
+      <c r="BL48" s="84"/>
+      <c r="BM48" s="84"/>
+      <c r="BN48" s="84"/>
+      <c r="BO48" s="84"/>
+      <c r="BP48" s="84"/>
+      <c r="BQ48" s="84"/>
+      <c r="BR48" s="84"/>
+      <c r="BS48" s="84"/>
+      <c r="BT48" s="84"/>
+      <c r="BU48" s="84"/>
+      <c r="BV48" s="84"/>
+      <c r="BW48" s="84"/>
+      <c r="BX48" s="84"/>
+      <c r="BY48" s="84"/>
+      <c r="BZ48" s="84"/>
+      <c r="CA48" s="84"/>
+      <c r="CB48" s="84"/>
+      <c r="CC48" s="84"/>
+      <c r="CD48" s="84"/>
+      <c r="CE48" s="84"/>
+      <c r="CF48" s="84"/>
+      <c r="CG48" s="84"/>
+      <c r="CH48" s="84"/>
+      <c r="CI48" s="84"/>
+      <c r="CJ48" s="84"/>
+      <c r="CK48" s="84"/>
+      <c r="CL48" s="84"/>
+      <c r="CM48" s="84"/>
+      <c r="CN48" s="84"/>
+      <c r="CO48" s="84"/>
+      <c r="CP48" s="84"/>
+      <c r="CQ48" s="84"/>
+      <c r="CR48" s="84"/>
+      <c r="CS48" s="84"/>
+      <c r="CT48" s="84"/>
+      <c r="CU48" s="84"/>
+      <c r="CV48" s="84"/>
+      <c r="CW48" s="84"/>
+      <c r="CX48" s="84"/>
+      <c r="CY48" s="84"/>
+      <c r="CZ48" s="84"/>
+      <c r="DA48" s="84"/>
+      <c r="DB48" s="84"/>
+      <c r="DC48" s="84"/>
+      <c r="DD48" s="84"/>
+      <c r="DE48" s="84"/>
+      <c r="DF48" s="84"/>
+      <c r="DG48" s="84"/>
+      <c r="DH48" s="84"/>
+      <c r="DI48" s="84"/>
+      <c r="DJ48" s="84"/>
+      <c r="DK48" s="84"/>
+      <c r="DL48" s="84"/>
+      <c r="DM48" s="84"/>
+      <c r="DN48" s="84"/>
+      <c r="DO48" s="84"/>
+      <c r="DP48" s="84"/>
+      <c r="DQ48" s="84"/>
+      <c r="DR48" s="84"/>
+      <c r="DS48" s="84"/>
+      <c r="DT48" s="84"/>
+      <c r="DU48" s="84"/>
+      <c r="DV48" s="84"/>
+      <c r="DW48" s="84"/>
+      <c r="DX48" s="84"/>
+      <c r="DY48" s="84"/>
+      <c r="DZ48" s="84"/>
+      <c r="EA48" s="84"/>
+      <c r="EB48" s="84"/>
+      <c r="EC48" s="84"/>
+      <c r="ED48" s="84"/>
+      <c r="EE48" s="84"/>
+      <c r="EF48" s="84"/>
+      <c r="EG48" s="84"/>
+      <c r="EH48" s="84"/>
+      <c r="EI48" s="84"/>
+      <c r="EJ48" s="84"/>
+      <c r="EK48" s="84"/>
+      <c r="EL48" s="84"/>
+      <c r="EM48" s="84"/>
+      <c r="EN48" s="84"/>
+      <c r="EO48" s="84"/>
+      <c r="EP48" s="84"/>
+      <c r="EQ48" s="84"/>
+      <c r="ER48" s="84"/>
+      <c r="ES48" s="84"/>
+      <c r="ET48" s="84"/>
+      <c r="EU48" s="84"/>
+      <c r="EV48" s="84"/>
+      <c r="EW48" s="84"/>
+      <c r="EX48" s="84"/>
+      <c r="EY48" s="84"/>
+      <c r="EZ48" s="84"/>
+      <c r="FA48" s="84"/>
+      <c r="FB48" s="84"/>
+      <c r="FC48" s="84"/>
+      <c r="FD48" s="84"/>
+      <c r="FE48" s="84"/>
+      <c r="FF48" s="84"/>
+      <c r="FG48" s="84"/>
+      <c r="FH48" s="84"/>
+      <c r="FI48" s="84"/>
+      <c r="FJ48" s="84"/>
+      <c r="FK48" s="84"/>
+      <c r="FL48" s="84"/>
+      <c r="FM48" s="84"/>
+      <c r="FN48" s="84"/>
+      <c r="FO48" s="84"/>
+      <c r="FP48" s="84"/>
+      <c r="FQ48" s="84"/>
+      <c r="FR48" s="84"/>
+      <c r="FS48" s="84"/>
+      <c r="FT48" s="84"/>
+      <c r="FU48" s="84"/>
+      <c r="FV48" s="84"/>
+      <c r="FW48" s="84"/>
+      <c r="FX48" s="84"/>
+      <c r="FY48" s="84"/>
+      <c r="FZ48" s="84"/>
+      <c r="GA48" s="84"/>
+      <c r="GB48" s="84"/>
+      <c r="GC48" s="84"/>
+      <c r="GD48" s="84"/>
+      <c r="GE48" s="84"/>
+      <c r="GF48" s="84"/>
+      <c r="GG48" s="84"/>
+      <c r="GH48" s="84"/>
+      <c r="GI48" s="84"/>
+      <c r="GJ48" s="84"/>
+      <c r="GK48" s="84"/>
+      <c r="GL48" s="84"/>
+      <c r="GM48" s="84"/>
+      <c r="GN48" s="84"/>
+      <c r="GO48" s="84"/>
+      <c r="GP48" s="84"/>
+      <c r="GQ48" s="84"/>
+      <c r="GR48" s="84"/>
+      <c r="GS48" s="84"/>
+      <c r="GT48" s="84"/>
+      <c r="GU48" s="84"/>
+      <c r="GV48" s="84"/>
+      <c r="GW48" s="84"/>
+      <c r="GX48" s="84"/>
+      <c r="GY48" s="84"/>
+      <c r="GZ48" s="84"/>
+      <c r="HA48" s="84"/>
+      <c r="HB48" s="84"/>
+      <c r="HC48" s="84"/>
+      <c r="HD48" s="84"/>
+      <c r="HE48" s="84"/>
+      <c r="HF48" s="84"/>
+      <c r="HG48" s="84"/>
+      <c r="HH48" s="84"/>
+      <c r="HI48" s="84"/>
+      <c r="HJ48" s="84"/>
+      <c r="HK48" s="84"/>
+      <c r="HL48" s="84"/>
+      <c r="HM48" s="84"/>
+      <c r="HN48" s="84"/>
+      <c r="HO48" s="84"/>
+      <c r="HP48" s="84"/>
+      <c r="HQ48" s="84"/>
+      <c r="HR48" s="84"/>
+      <c r="HS48" s="84"/>
+      <c r="HT48" s="84"/>
+      <c r="HU48" s="84"/>
+    </row>
+    <row r="54" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E54" s="83"/>
+    </row>
+    <row r="55" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E55" s="83"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:E2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1269FB09-752F-4AD5-BD08-AAEDBA4EC7A6}">
   <dimension ref="A1:Q33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1147,10 +2176,10 @@
       <c r="D2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="30" t="s">
+      <c r="E2" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="30" t="s">
+      <c r="F2" s="25" t="s">
         <v>5</v>
       </c>
       <c r="G2" s="7" t="s">
@@ -1159,13 +2188,13 @@
       <c r="H2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="32" t="s">
+      <c r="I2" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="31" t="s">
+      <c r="J2" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="33" t="s">
+      <c r="K2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="L2" s="8" t="s">
@@ -1188,618 +2217,645 @@
       </c>
     </row>
     <row r="3" spans="1:17" ht="40" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="16">
-        <v>1</v>
-      </c>
-      <c r="B3" s="16">
-        <v>1</v>
-      </c>
-      <c r="C3" s="22">
-        <v>1</v>
-      </c>
-      <c r="D3" s="22" t="s">
+      <c r="A3" s="43">
+        <v>1</v>
+      </c>
+      <c r="B3" s="43">
+        <v>1</v>
+      </c>
+      <c r="C3" s="68">
+        <v>1</v>
+      </c>
+      <c r="D3" s="61" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="68" t="s">
+        <v>49</v>
+      </c>
+      <c r="F3" s="69" t="s">
+        <v>50</v>
+      </c>
+      <c r="G3" s="61" t="s">
+        <v>41</v>
+      </c>
+      <c r="H3" s="61" t="s">
+        <v>42</v>
+      </c>
+      <c r="I3" s="22">
+        <v>3</v>
+      </c>
+      <c r="J3" s="21">
+        <v>98</v>
+      </c>
+      <c r="K3" s="74"/>
+      <c r="L3" s="75"/>
+      <c r="M3" s="13">
+        <v>3</v>
+      </c>
+      <c r="N3" s="76"/>
+      <c r="O3" s="76"/>
+      <c r="P3" s="76"/>
+      <c r="Q3" s="78"/>
+    </row>
+    <row r="4" spans="1:17" ht="48.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="56">
+        <v>2</v>
+      </c>
+      <c r="B4" s="56">
+        <v>1</v>
+      </c>
+      <c r="C4" s="62">
+        <v>1</v>
+      </c>
+      <c r="D4" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="22" t="s">
+      <c r="E4" s="61" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="66" t="s">
+        <v>43</v>
+      </c>
+      <c r="G4" s="61" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="61" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" s="67">
+        <v>1</v>
+      </c>
+      <c r="J4" s="65">
+        <v>96</v>
+      </c>
+      <c r="K4" s="70"/>
+      <c r="L4" s="53"/>
+      <c r="M4" s="54">
+        <v>1</v>
+      </c>
+      <c r="N4" s="55">
+        <v>0</v>
+      </c>
+      <c r="O4" s="54"/>
+      <c r="P4" s="54"/>
+      <c r="Q4" s="60"/>
+    </row>
+    <row r="5" spans="1:17" ht="55" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="56">
+        <v>3</v>
+      </c>
+      <c r="B5" s="56">
+        <v>1</v>
+      </c>
+      <c r="C5" s="62">
+        <v>1</v>
+      </c>
+      <c r="D5" s="62" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="62" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="23" t="s">
+      <c r="F5" s="63" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="22" t="s">
+      <c r="G5" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="21" t="s">
+      <c r="H5" s="61" t="s">
         <v>19</v>
       </c>
-      <c r="I3" s="27">
+      <c r="I5" s="67">
         <v>2</v>
       </c>
-      <c r="J3" s="25">
+      <c r="J5" s="65">
         <v>95</v>
       </c>
-      <c r="K3" s="34"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="14">
+      <c r="K5" s="70"/>
+      <c r="L5" s="53"/>
+      <c r="M5" s="54">
         <v>2</v>
       </c>
-      <c r="N3" s="15"/>
-      <c r="O3" s="14"/>
-      <c r="P3" s="14"/>
-      <c r="Q3" s="20"/>
-    </row>
-    <row r="4" spans="1:17" ht="48.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="16">
+      <c r="N5" s="55"/>
+      <c r="O5" s="54"/>
+      <c r="P5" s="54"/>
+      <c r="Q5" s="60"/>
+    </row>
+    <row r="6" spans="1:17" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="56">
+        <v>4</v>
+      </c>
+      <c r="B6" s="56">
+        <v>1</v>
+      </c>
+      <c r="C6" s="62">
+        <v>1</v>
+      </c>
+      <c r="D6" s="62" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="68" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="63" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" s="62" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" s="62" t="s">
+        <v>19</v>
+      </c>
+      <c r="I6" s="67">
+        <v>3</v>
+      </c>
+      <c r="J6" s="64">
+        <v>95</v>
+      </c>
+      <c r="K6" s="71"/>
+      <c r="L6" s="57"/>
+      <c r="M6" s="58">
+        <v>3</v>
+      </c>
+      <c r="N6" s="55"/>
+      <c r="O6" s="58"/>
+      <c r="P6" s="58"/>
+      <c r="Q6" s="59"/>
+    </row>
+    <row r="7" spans="1:17" ht="50" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="15">
+        <v>5</v>
+      </c>
+      <c r="B7" s="15">
+        <v>1</v>
+      </c>
+      <c r="C7" s="19">
+        <v>1</v>
+      </c>
+      <c r="D7" s="62" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="68" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="69" t="s">
+        <v>44</v>
+      </c>
+      <c r="G7" s="62" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" s="62" t="s">
+        <v>19</v>
+      </c>
+      <c r="I7" s="22">
+        <v>0.5</v>
+      </c>
+      <c r="J7" s="64">
+        <v>95</v>
+      </c>
+      <c r="K7" s="71"/>
+      <c r="L7" s="57"/>
+      <c r="M7" s="58">
+        <v>1</v>
+      </c>
+      <c r="N7" s="14">
+        <v>0</v>
+      </c>
+      <c r="O7" s="58"/>
+      <c r="P7" s="58"/>
+      <c r="Q7" s="59"/>
+    </row>
+    <row r="8" spans="1:17" ht="44.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="15">
+        <v>6</v>
+      </c>
+      <c r="B8" s="15">
+        <v>1</v>
+      </c>
+      <c r="C8" s="19">
+        <v>1</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="68" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="69" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="H8" s="62" t="s">
+        <v>19</v>
+      </c>
+      <c r="I8" s="22">
+        <v>1</v>
+      </c>
+      <c r="J8" s="64">
+        <v>93</v>
+      </c>
+      <c r="K8" s="71"/>
+      <c r="L8" s="57"/>
+      <c r="M8" s="58">
+        <v>1</v>
+      </c>
+      <c r="N8" s="14">
+        <v>0</v>
+      </c>
+      <c r="O8" s="58"/>
+      <c r="P8" s="58"/>
+      <c r="Q8" s="59"/>
+    </row>
+    <row r="9" spans="1:17" ht="44.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="15">
+        <v>7</v>
+      </c>
+      <c r="B9" s="15">
+        <v>1</v>
+      </c>
+      <c r="C9" s="19">
+        <v>1</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="69" t="s">
+        <v>29</v>
+      </c>
+      <c r="G9" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="H9" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="I9" s="22">
+        <v>1</v>
+      </c>
+      <c r="J9" s="20">
+        <v>93</v>
+      </c>
+      <c r="K9" s="29"/>
+      <c r="L9" s="16"/>
+      <c r="M9" s="17">
         <v>2</v>
       </c>
-      <c r="B4" s="16">
-        <v>1</v>
-      </c>
-      <c r="C4" s="22">
-        <v>1</v>
-      </c>
-      <c r="D4" s="21" t="s">
+      <c r="N9" s="14">
+        <v>0</v>
+      </c>
+      <c r="O9" s="17"/>
+      <c r="P9" s="17"/>
+      <c r="Q9" s="18"/>
+    </row>
+    <row r="10" spans="1:17" ht="48.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="15">
+        <v>8</v>
+      </c>
+      <c r="B10" s="15">
+        <v>1</v>
+      </c>
+      <c r="C10" s="19">
+        <v>1</v>
+      </c>
+      <c r="D10" s="62" t="s">
+        <v>52</v>
+      </c>
+      <c r="E10" s="23"/>
+      <c r="F10" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="G10" s="62" t="s">
+        <v>41</v>
+      </c>
+      <c r="H10" s="62" t="s">
+        <v>42</v>
+      </c>
+      <c r="I10" s="22">
+        <v>3</v>
+      </c>
+      <c r="J10" s="64">
+        <v>92</v>
+      </c>
+      <c r="K10" s="71"/>
+      <c r="L10" s="57"/>
+      <c r="M10" s="58">
+        <v>3</v>
+      </c>
+      <c r="N10" s="14"/>
+      <c r="O10" s="58"/>
+      <c r="P10" s="58"/>
+      <c r="Q10" s="59"/>
+    </row>
+    <row r="11" spans="1:17" ht="40" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="56">
+        <v>9</v>
+      </c>
+      <c r="B11" s="56">
+        <v>1</v>
+      </c>
+      <c r="C11" s="62">
+        <v>1</v>
+      </c>
+      <c r="D11" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="G4" s="21" t="s">
+      <c r="E11" s="68" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11" s="69" t="s">
+        <v>45</v>
+      </c>
+      <c r="G11" s="61" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="21" t="s">
+      <c r="H11" s="61" t="s">
         <v>19</v>
       </c>
-      <c r="I4" s="27">
-        <v>1</v>
-      </c>
-      <c r="J4" s="25">
-        <v>96</v>
-      </c>
-      <c r="K4" s="34"/>
-      <c r="L4" s="13"/>
-      <c r="M4" s="14">
-        <v>1</v>
-      </c>
-      <c r="N4" s="15">
+      <c r="I11" s="67">
+        <v>3</v>
+      </c>
+      <c r="J11" s="65">
+        <v>92</v>
+      </c>
+      <c r="K11" s="70"/>
+      <c r="L11" s="53"/>
+      <c r="M11" s="54">
+        <v>3</v>
+      </c>
+      <c r="N11" s="55">
         <v>0</v>
       </c>
-      <c r="O4" s="14"/>
-      <c r="P4" s="14"/>
-      <c r="Q4" s="20"/>
-    </row>
-    <row r="5" spans="1:17" ht="55" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="16">
+      <c r="O11" s="54"/>
+      <c r="P11" s="54"/>
+      <c r="Q11" s="60"/>
+    </row>
+    <row r="12" spans="1:17" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="43">
+        <v>10</v>
+      </c>
+      <c r="B12" s="43">
+        <v>1</v>
+      </c>
+      <c r="C12" s="68">
+        <v>1</v>
+      </c>
+      <c r="D12" s="61" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" s="68" t="s">
+        <v>47</v>
+      </c>
+      <c r="F12" s="69" t="s">
+        <v>48</v>
+      </c>
+      <c r="G12" s="61" t="s">
+        <v>41</v>
+      </c>
+      <c r="H12" s="61" t="s">
+        <v>42</v>
+      </c>
+      <c r="I12" s="67">
         <v>3</v>
       </c>
-      <c r="B5" s="16">
-        <v>1</v>
-      </c>
-      <c r="C5" s="22">
-        <v>1</v>
-      </c>
-      <c r="D5" s="22" t="s">
+      <c r="J12" s="65">
+        <v>90</v>
+      </c>
+      <c r="K12" s="74"/>
+      <c r="L12" s="75"/>
+      <c r="M12" s="54">
+        <v>3</v>
+      </c>
+      <c r="N12" s="76"/>
+      <c r="O12" s="76"/>
+      <c r="P12" s="76"/>
+      <c r="Q12" s="78"/>
+    </row>
+    <row r="13" spans="1:17" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="56">
+        <v>11</v>
+      </c>
+      <c r="B13" s="56">
+        <v>1</v>
+      </c>
+      <c r="C13" s="62">
+        <v>1</v>
+      </c>
+      <c r="D13" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="G5" s="22" t="s">
+      <c r="E13" s="68" t="s">
+        <v>32</v>
+      </c>
+      <c r="F13" s="69" t="s">
+        <v>33</v>
+      </c>
+      <c r="G13" s="61" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="22" t="s">
+      <c r="H13" s="61" t="s">
         <v>19</v>
       </c>
-      <c r="I5" s="27">
+      <c r="I13" s="67">
         <v>3</v>
       </c>
-      <c r="J5" s="24">
-        <v>95</v>
-      </c>
-      <c r="K5" s="35"/>
-      <c r="L5" s="17"/>
-      <c r="M5" s="18">
+      <c r="J13" s="65">
+        <v>88</v>
+      </c>
+      <c r="K13" s="70"/>
+      <c r="L13" s="53"/>
+      <c r="M13" s="54">
         <v>3</v>
       </c>
-      <c r="N5" s="15"/>
-      <c r="O5" s="18"/>
-      <c r="P5" s="18"/>
-      <c r="Q5" s="19"/>
-    </row>
-    <row r="6" spans="1:17" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="16">
-        <v>4</v>
-      </c>
-      <c r="B6" s="16">
-        <v>1</v>
-      </c>
-      <c r="C6" s="22">
-        <v>1</v>
-      </c>
-      <c r="D6" s="22" t="s">
+      <c r="N13" s="55">
+        <v>0</v>
+      </c>
+      <c r="O13" s="54"/>
+      <c r="P13" s="54"/>
+      <c r="Q13" s="60"/>
+    </row>
+    <row r="14" spans="1:17" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="72">
+        <v>12</v>
+      </c>
+      <c r="B14" s="72">
+        <v>1</v>
+      </c>
+      <c r="C14" s="73">
+        <v>1</v>
+      </c>
+      <c r="D14" s="73" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="F6" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="G6" s="22" t="s">
+      <c r="E14" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="G14" s="73" t="s">
         <v>18</v>
       </c>
-      <c r="H6" s="22" t="s">
+      <c r="H14" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="I6" s="27">
-        <v>1</v>
-      </c>
-      <c r="J6" s="24">
-        <v>93</v>
-      </c>
-      <c r="K6" s="35"/>
-      <c r="L6" s="17"/>
-      <c r="M6" s="18">
-        <v>1</v>
-      </c>
-      <c r="N6" s="15">
+      <c r="I14" s="34">
+        <v>2</v>
+      </c>
+      <c r="J14" s="35">
+        <v>86</v>
+      </c>
+      <c r="K14" s="37"/>
+      <c r="L14" s="37"/>
+      <c r="M14" s="36">
+        <v>2</v>
+      </c>
+      <c r="N14" s="77"/>
+      <c r="O14" s="37"/>
+      <c r="P14" s="37"/>
+      <c r="Q14" s="79"/>
+    </row>
+    <row r="15" spans="1:17" ht="56" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="39">
+        <v>13</v>
+      </c>
+      <c r="B15" s="38">
+        <v>1</v>
+      </c>
+      <c r="C15" s="30">
+        <v>1</v>
+      </c>
+      <c r="D15" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="E15" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="F15" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="G15" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="H15" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="I15" s="34">
+        <v>1</v>
+      </c>
+      <c r="J15" s="35">
+        <v>86</v>
+      </c>
+      <c r="K15" s="80"/>
+      <c r="L15" s="80"/>
+      <c r="M15" s="37">
+        <v>2</v>
+      </c>
+      <c r="N15" s="80"/>
+      <c r="O15" s="80"/>
+      <c r="P15" s="80"/>
+      <c r="Q15" s="80"/>
+    </row>
+    <row r="16" spans="1:17" ht="44.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="39">
+        <v>14</v>
+      </c>
+      <c r="B16" s="38">
+        <v>1</v>
+      </c>
+      <c r="C16" s="30">
+        <v>1</v>
+      </c>
+      <c r="D16" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="E16" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="F16" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="G16" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="H16" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="I16" s="34">
+        <v>2</v>
+      </c>
+      <c r="J16" s="35">
+        <v>86</v>
+      </c>
+      <c r="K16" s="80"/>
+      <c r="L16" s="80"/>
+      <c r="M16" s="37">
+        <v>2</v>
+      </c>
+      <c r="N16" s="80"/>
+      <c r="O16" s="80"/>
+      <c r="P16" s="80"/>
+      <c r="Q16" s="80"/>
+    </row>
+    <row r="17" spans="1:17" ht="39" x14ac:dyDescent="0.25">
+      <c r="A17" s="40">
+        <v>15</v>
+      </c>
+      <c r="B17" s="72">
+        <v>1</v>
+      </c>
+      <c r="C17" s="73">
+        <v>1</v>
+      </c>
+      <c r="D17" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="E17" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="F17" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="G17" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="H17" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="I17" s="34">
+        <v>0.5</v>
+      </c>
+      <c r="J17" s="35">
+        <v>70</v>
+      </c>
+      <c r="K17" s="37"/>
+      <c r="L17" s="37"/>
+      <c r="M17" s="37">
+        <v>1</v>
+      </c>
+      <c r="N17" s="77">
         <v>0</v>
       </c>
-      <c r="O6" s="18"/>
-      <c r="P6" s="18"/>
-      <c r="Q6" s="19"/>
-    </row>
-    <row r="7" spans="1:17" ht="50" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="16">
-        <v>5</v>
-      </c>
-      <c r="B7" s="16">
-        <v>1</v>
-      </c>
-      <c r="C7" s="22">
-        <v>1</v>
-      </c>
-      <c r="D7" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="F7" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="G7" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="H7" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="I7" s="27">
-        <v>1</v>
-      </c>
-      <c r="J7" s="24">
-        <v>93</v>
-      </c>
-      <c r="K7" s="35"/>
-      <c r="L7" s="17"/>
-      <c r="M7" s="18">
-        <v>2</v>
-      </c>
-      <c r="N7" s="15">
-        <v>0</v>
-      </c>
-      <c r="O7" s="18"/>
-      <c r="P7" s="18"/>
-      <c r="Q7" s="19"/>
-    </row>
-    <row r="8" spans="1:17" ht="44.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="16">
-        <v>6</v>
-      </c>
-      <c r="B8" s="16">
-        <v>1</v>
-      </c>
-      <c r="C8" s="22">
-        <v>1</v>
-      </c>
-      <c r="D8" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="F8" s="29" t="s">
-        <v>44</v>
-      </c>
-      <c r="G8" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="H8" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="I8" s="27">
-        <v>0.5</v>
-      </c>
-      <c r="J8" s="24">
-        <v>95</v>
-      </c>
-      <c r="K8" s="35"/>
-      <c r="L8" s="17"/>
-      <c r="M8" s="18">
-        <v>1</v>
-      </c>
-      <c r="N8" s="15">
-        <v>0</v>
-      </c>
-      <c r="O8" s="18"/>
-      <c r="P8" s="18"/>
-      <c r="Q8" s="19"/>
-    </row>
-    <row r="9" spans="1:17" ht="44.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="16">
-        <v>7</v>
-      </c>
-      <c r="B9" s="16">
-        <v>1</v>
-      </c>
-      <c r="C9" s="22">
-        <v>1</v>
-      </c>
-      <c r="D9" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="E9" s="28"/>
-      <c r="F9" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="G9" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="H9" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="I9" s="27">
-        <v>3</v>
-      </c>
-      <c r="J9" s="24">
-        <v>92</v>
-      </c>
-      <c r="K9" s="35"/>
-      <c r="L9" s="17"/>
-      <c r="M9" s="18">
-        <v>3</v>
-      </c>
-      <c r="N9" s="15"/>
-      <c r="O9" s="18"/>
-      <c r="P9" s="18"/>
-      <c r="Q9" s="19"/>
-    </row>
-    <row r="10" spans="1:17" ht="48.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="16">
-        <v>8</v>
-      </c>
-      <c r="B10" s="16">
-        <v>1</v>
-      </c>
-      <c r="C10" s="22">
-        <v>1</v>
-      </c>
-      <c r="D10" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="F10" s="29" t="s">
-        <v>45</v>
-      </c>
-      <c r="G10" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="H10" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="I10" s="27">
-        <v>3</v>
-      </c>
-      <c r="J10" s="25">
-        <v>92</v>
-      </c>
-      <c r="K10" s="34"/>
-      <c r="L10" s="13"/>
-      <c r="M10" s="14">
-        <v>3</v>
-      </c>
-      <c r="N10" s="15">
-        <v>0</v>
-      </c>
-      <c r="O10" s="14"/>
-      <c r="P10" s="14"/>
-      <c r="Q10" s="20"/>
-    </row>
-    <row r="11" spans="1:17" ht="40" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="16">
-        <v>9</v>
-      </c>
-      <c r="B11" s="16">
-        <v>1</v>
-      </c>
-      <c r="C11" s="22">
-        <v>1</v>
-      </c>
-      <c r="D11" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="E11" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="F11" s="29" t="s">
-        <v>33</v>
-      </c>
-      <c r="G11" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="H11" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="I11" s="27">
-        <v>3</v>
-      </c>
-      <c r="J11" s="25">
-        <v>88</v>
-      </c>
-      <c r="K11" s="34"/>
-      <c r="L11" s="13"/>
-      <c r="M11" s="14">
-        <v>3</v>
-      </c>
-      <c r="N11" s="15">
-        <v>0</v>
-      </c>
-      <c r="O11" s="14"/>
-      <c r="P11" s="14"/>
-      <c r="Q11" s="20"/>
-    </row>
-    <row r="12" spans="1:17" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="16">
-        <v>10</v>
-      </c>
-      <c r="B12" s="16">
-        <v>1</v>
-      </c>
-      <c r="C12" s="22">
-        <v>1</v>
-      </c>
-      <c r="D12" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="E12" s="28" t="s">
-        <v>34</v>
-      </c>
-      <c r="F12" s="29" t="s">
-        <v>46</v>
-      </c>
-      <c r="G12" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="H12" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="I12" s="27">
-        <v>0.5</v>
-      </c>
-      <c r="J12" s="25">
-        <v>85</v>
-      </c>
-      <c r="K12" s="34"/>
-      <c r="L12" s="13"/>
-      <c r="M12" s="14">
-        <v>1</v>
-      </c>
-      <c r="N12" s="15">
-        <v>0</v>
-      </c>
-      <c r="O12" s="14"/>
-      <c r="P12" s="14"/>
-      <c r="Q12" s="20"/>
-    </row>
-    <row r="13" spans="1:17" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="16">
-        <v>11</v>
-      </c>
-      <c r="B13" s="16">
-        <v>1</v>
-      </c>
-      <c r="C13" s="22">
-        <v>1</v>
-      </c>
-      <c r="D13" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="E13" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="F13" s="29" t="s">
-        <v>37</v>
-      </c>
-      <c r="G13" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="H13" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="I13" s="27">
-        <v>2</v>
-      </c>
-      <c r="J13" s="25">
-        <v>98</v>
-      </c>
-      <c r="K13" s="34"/>
-      <c r="L13" s="13"/>
-      <c r="M13" s="14">
-        <v>2</v>
-      </c>
-      <c r="N13" s="15"/>
-      <c r="O13" s="14"/>
-      <c r="P13" s="14"/>
-      <c r="Q13" s="20"/>
-    </row>
-    <row r="14" spans="1:17" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="44">
-        <v>12</v>
-      </c>
-      <c r="B14" s="44">
-        <v>1</v>
-      </c>
-      <c r="C14" s="36">
-        <v>1</v>
-      </c>
-      <c r="D14" s="37" t="s">
-        <v>35</v>
-      </c>
-      <c r="E14" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="F14" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="G14" s="37" t="s">
-        <v>41</v>
-      </c>
-      <c r="H14" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="I14" s="40">
-        <v>1</v>
-      </c>
-      <c r="J14" s="41">
-        <v>98</v>
-      </c>
-      <c r="M14" s="42">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" ht="56" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="45">
-        <v>13</v>
-      </c>
-      <c r="B15" s="44">
-        <v>1</v>
-      </c>
-      <c r="C15" s="36">
-        <v>1</v>
-      </c>
-      <c r="D15" s="37" t="s">
-        <v>35</v>
-      </c>
-      <c r="E15" s="36" t="s">
-        <v>39</v>
-      </c>
-      <c r="F15" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="G15" s="37" t="s">
-        <v>41</v>
-      </c>
-      <c r="H15" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="I15" s="40">
-        <v>2</v>
-      </c>
-      <c r="J15" s="41">
-        <v>98</v>
-      </c>
-      <c r="M15" s="43">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" ht="44.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="45">
-        <v>14</v>
-      </c>
-      <c r="B16" s="44">
-        <v>1</v>
-      </c>
-      <c r="C16" s="36">
-        <v>1</v>
-      </c>
-      <c r="D16" s="37" t="s">
-        <v>35</v>
-      </c>
-      <c r="E16" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="F16" s="38" t="s">
-        <v>48</v>
-      </c>
-      <c r="G16" s="37" t="s">
-        <v>41</v>
-      </c>
-      <c r="H16" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="I16" s="40">
-        <v>3</v>
-      </c>
-      <c r="J16" s="41">
-        <v>90</v>
-      </c>
-      <c r="M16" s="43">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" ht="26" x14ac:dyDescent="0.25">
-      <c r="A17" s="45">
-        <v>15</v>
-      </c>
-      <c r="B17" s="44">
-        <v>1</v>
-      </c>
-      <c r="C17" s="36">
-        <v>1</v>
-      </c>
-      <c r="D17" s="37" t="s">
-        <v>35</v>
-      </c>
-      <c r="E17" s="36" t="s">
-        <v>49</v>
-      </c>
-      <c r="F17" s="38" t="s">
-        <v>50</v>
-      </c>
-      <c r="G17" s="37" t="s">
-        <v>41</v>
-      </c>
-      <c r="H17" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="I17" s="40">
-        <v>3</v>
-      </c>
-      <c r="J17" s="41">
-        <v>98</v>
-      </c>
-      <c r="M17" s="43">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" ht="43" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="1:13" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="21" spans="1:13" ht="58.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="1:13" ht="54" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="23" spans="1:13" ht="58.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="24" spans="1:13" ht="64" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="31" spans="1:13" ht="40" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="32" spans="1:13" ht="59.5" customHeight="1" x14ac:dyDescent="0.3"/>
+      <c r="O17" s="37"/>
+      <c r="P17" s="37"/>
+      <c r="Q17" s="79"/>
+    </row>
+    <row r="18" spans="1:17" ht="43" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="1:17" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="21" spans="1:17" ht="58.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="1:17" ht="54" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="23" spans="1:17" ht="58.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="24" spans="1:17" ht="64" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="31" spans="1:17" ht="40" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="32" spans="1:17" ht="59.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="33" ht="58.5" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
+  <sortState ref="A3:Q34">
+    <sortCondition descending="1" ref="J2"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
